--- a/data/pca/factorExposure/factorExposure_2018-08-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-08-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.03635184682882659</v>
+        <v>-0.0315365984793882</v>
       </c>
       <c r="C2">
-        <v>-0.04503694767601851</v>
+        <v>-0.01332650447723339</v>
       </c>
       <c r="D2">
-        <v>0.03751140303837664</v>
+        <v>-0.01188483128980171</v>
       </c>
       <c r="E2">
-        <v>0.04417662905274781</v>
+        <v>0.01503265285678606</v>
       </c>
       <c r="F2">
-        <v>0.1451089403018353</v>
+        <v>0.02049799335739235</v>
       </c>
       <c r="G2">
-        <v>-0.05401465696480134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.08193778278210422</v>
+      </c>
+      <c r="H2">
+        <v>0.01827779888076023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1188748567245985</v>
+        <v>-0.07898203582031628</v>
       </c>
       <c r="C3">
-        <v>-0.01189249642619977</v>
+        <v>0.01715032768822091</v>
       </c>
       <c r="D3">
-        <v>0.04202579785408088</v>
+        <v>-0.01651578677240514</v>
       </c>
       <c r="E3">
-        <v>0.08752299601632586</v>
+        <v>0.008014450565276733</v>
       </c>
       <c r="F3">
-        <v>0.4041809752552834</v>
+        <v>-0.01219089062852212</v>
       </c>
       <c r="G3">
-        <v>-0.1551740604700854</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.2732871558576395</v>
+      </c>
+      <c r="H3">
+        <v>0.0366632060085686</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05254174041740112</v>
+        <v>-0.04842689066944558</v>
       </c>
       <c r="C4">
-        <v>-0.03909947643679412</v>
+        <v>-0.001137016771472399</v>
       </c>
       <c r="D4">
-        <v>-0.002006925914835579</v>
+        <v>-0.03049746891877683</v>
       </c>
       <c r="E4">
-        <v>0.06442288637672175</v>
+        <v>-0.02130135636691435</v>
       </c>
       <c r="F4">
-        <v>0.07415745721425011</v>
+        <v>0.05777368047804624</v>
       </c>
       <c r="G4">
-        <v>-0.04695692114370338</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.04964845096157843</v>
+      </c>
+      <c r="H4">
+        <v>0.02633124452232673</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01234932804849664</v>
+        <v>-0.03140845115504014</v>
       </c>
       <c r="C6">
-        <v>0.00128000828942156</v>
+        <v>-0.0009672528634886125</v>
       </c>
       <c r="D6">
-        <v>0.01449158841016501</v>
+        <v>-0.03911037951711405</v>
       </c>
       <c r="E6">
-        <v>0.01993758048521784</v>
+        <v>-0.005271412470630049</v>
       </c>
       <c r="F6">
-        <v>0.01155837716480243</v>
+        <v>0.03725937568507977</v>
       </c>
       <c r="G6">
-        <v>0.004170026960310463</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01516996933225415</v>
+      </c>
+      <c r="H6">
+        <v>0.05249481084722432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02700788518674536</v>
+        <v>-0.02101962888076699</v>
       </c>
       <c r="C7">
-        <v>-0.01749612837987318</v>
+        <v>-0.001602743312713753</v>
       </c>
       <c r="D7">
-        <v>0.03018271501914113</v>
+        <v>-0.0179471266112683</v>
       </c>
       <c r="E7">
-        <v>0.03687627511932442</v>
+        <v>-0.03579562031895846</v>
       </c>
       <c r="F7">
-        <v>0.06283605066145738</v>
+        <v>0.02183290066191532</v>
       </c>
       <c r="G7">
-        <v>-0.05786674642945199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.03792088724245646</v>
+      </c>
+      <c r="H7">
+        <v>0.0150623419254719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01531300974843204</v>
+        <v>-0.004855220763649629</v>
       </c>
       <c r="C8">
-        <v>-0.01633368458412131</v>
+        <v>0.002325528021581852</v>
       </c>
       <c r="D8">
-        <v>-0.002280718530063237</v>
+        <v>-0.007841704218391535</v>
       </c>
       <c r="E8">
-        <v>0.06897557482344484</v>
+        <v>-0.0115044153169367</v>
       </c>
       <c r="F8">
-        <v>0.08904960242264603</v>
+        <v>0.02703257142916291</v>
       </c>
       <c r="G8">
-        <v>-0.06644717522454439</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.05631770227496966</v>
+      </c>
+      <c r="H8">
+        <v>0.006211567786017147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04249020039584229</v>
+        <v>-0.03913016205433945</v>
       </c>
       <c r="C9">
-        <v>-0.03084749294589045</v>
+        <v>0.002424788408549102</v>
       </c>
       <c r="D9">
-        <v>-0.01303714813829272</v>
+        <v>-0.02555621071498207</v>
       </c>
       <c r="E9">
-        <v>0.06577416832795031</v>
+        <v>-0.01844676324484401</v>
       </c>
       <c r="F9">
-        <v>0.06920225940183863</v>
+        <v>0.03579331932900063</v>
       </c>
       <c r="G9">
-        <v>-0.04808121307166908</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.06063231861980519</v>
+      </c>
+      <c r="H9">
+        <v>0.02507537518219681</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.05182067627488843</v>
+        <v>-0.09351858938224335</v>
       </c>
       <c r="C10">
-        <v>-0.04195996944321044</v>
+        <v>0.03656111149472635</v>
       </c>
       <c r="D10">
-        <v>-0.01649992467736739</v>
+        <v>0.1461937726456518</v>
       </c>
       <c r="E10">
-        <v>-0.1143070938744665</v>
+        <v>0.02087965225848157</v>
       </c>
       <c r="F10">
-        <v>0.07557136514289443</v>
+        <v>-0.07070463922871789</v>
       </c>
       <c r="G10">
-        <v>0.04504574806914628</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.02448092512504684</v>
+      </c>
+      <c r="H10">
+        <v>0.003601669195710123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.0336636858082289</v>
+        <v>-0.02329927908086675</v>
       </c>
       <c r="C11">
-        <v>-0.01268400325257361</v>
+        <v>0.009833434240343926</v>
       </c>
       <c r="D11">
-        <v>0.01686726806854684</v>
+        <v>-0.03318322854599695</v>
       </c>
       <c r="E11">
-        <v>0.03404551288546458</v>
+        <v>0.003512004463001497</v>
       </c>
       <c r="F11">
-        <v>0.03373348319916325</v>
+        <v>0.02176533137905469</v>
       </c>
       <c r="G11">
-        <v>-0.02438113285398179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.03584820244115969</v>
+      </c>
+      <c r="H11">
+        <v>0.02667983592059713</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04092678954891753</v>
+        <v>-0.03205267694952198</v>
       </c>
       <c r="C12">
-        <v>-0.01449233250720085</v>
+        <v>0.008766140647688892</v>
       </c>
       <c r="D12">
-        <v>0.003372181480318689</v>
+        <v>-0.03220256416770301</v>
       </c>
       <c r="E12">
-        <v>0.04390789649413437</v>
+        <v>-0.007808619871128549</v>
       </c>
       <c r="F12">
-        <v>0.01674022869916669</v>
+        <v>0.02560482054816669</v>
       </c>
       <c r="G12">
-        <v>-0.0192681803890811</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.01325296900709489</v>
+      </c>
+      <c r="H12">
+        <v>0.01369269218486971</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01904753172738896</v>
+        <v>-0.02801814525902861</v>
       </c>
       <c r="C13">
-        <v>-0.02389090356709807</v>
+        <v>-0.01123025508561176</v>
       </c>
       <c r="D13">
-        <v>0.03434614682524492</v>
+        <v>-0.003345122339180444</v>
       </c>
       <c r="E13">
-        <v>0.01749342129964713</v>
+        <v>0.01746803924025146</v>
       </c>
       <c r="F13">
-        <v>0.09045036543612153</v>
+        <v>0.02129691796755622</v>
       </c>
       <c r="G13">
-        <v>-0.03545732776279625</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.06793687053138447</v>
+      </c>
+      <c r="H13">
+        <v>0.02419822393344554</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01065075709768476</v>
+        <v>-0.01556185332870338</v>
       </c>
       <c r="C14">
-        <v>-0.01770897302070601</v>
+        <v>0.0003850293688801978</v>
       </c>
       <c r="D14">
-        <v>0.003537430780443121</v>
+        <v>-0.003379512462408543</v>
       </c>
       <c r="E14">
-        <v>0.03864202327119916</v>
+        <v>-0.008604618596825203</v>
       </c>
       <c r="F14">
-        <v>0.06268492763731247</v>
+        <v>0.02400658700632603</v>
       </c>
       <c r="G14">
-        <v>-0.06273186941677691</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04426346607762593</v>
+      </c>
+      <c r="H14">
+        <v>-0.01898872519508564</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02544280023274793</v>
+        <v>-0.02440678402846953</v>
       </c>
       <c r="C16">
-        <v>-0.01417257669779809</v>
+        <v>0.0104052756470875</v>
       </c>
       <c r="D16">
-        <v>0.01386107244828034</v>
+        <v>-0.02815735719032137</v>
       </c>
       <c r="E16">
-        <v>0.03335801330957595</v>
+        <v>-0.001224020852815667</v>
       </c>
       <c r="F16">
-        <v>0.03871195830837297</v>
+        <v>0.02367416448056354</v>
       </c>
       <c r="G16">
-        <v>-0.02697749663378305</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.03158875612047064</v>
+      </c>
+      <c r="H16">
+        <v>0.02082619383355596</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03791974100371365</v>
+        <v>-0.03299617748602592</v>
       </c>
       <c r="C19">
-        <v>-0.01607025698065351</v>
+        <v>0.001997681367102017</v>
       </c>
       <c r="D19">
-        <v>0.01755806785103507</v>
+        <v>-0.01147689228967641</v>
       </c>
       <c r="E19">
-        <v>0.05101751348260255</v>
+        <v>0.0006686884118922983</v>
       </c>
       <c r="F19">
-        <v>0.1036181164951634</v>
+        <v>0.03192360546305469</v>
       </c>
       <c r="G19">
-        <v>-0.04608319728132673</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.07146229201249804</v>
+      </c>
+      <c r="H19">
+        <v>0.03620619313019807</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.003420766840633398</v>
+        <v>-0.008460157201545027</v>
       </c>
       <c r="C20">
-        <v>-0.02426638010355412</v>
+        <v>-0.006383018221813473</v>
       </c>
       <c r="D20">
-        <v>0.009057098157019034</v>
+        <v>-0.00162757853527985</v>
       </c>
       <c r="E20">
-        <v>0.03170147018217429</v>
+        <v>-0.0004983746815235007</v>
       </c>
       <c r="F20">
-        <v>0.06236384966469668</v>
+        <v>0.01836475973768057</v>
       </c>
       <c r="G20">
-        <v>-0.06561501967177122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.05169777153715102</v>
+      </c>
+      <c r="H20">
+        <v>-0.01052703173484556</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.001482479712872944</v>
+        <v>-0.02401722465962212</v>
       </c>
       <c r="C21">
-        <v>0.003024764353926765</v>
+        <v>-0.0039664019877084</v>
       </c>
       <c r="D21">
-        <v>0.005301870864617914</v>
+        <v>-0.003356959327148132</v>
       </c>
       <c r="E21">
-        <v>0.03661342122670989</v>
+        <v>-0.01154729161387907</v>
       </c>
       <c r="F21">
-        <v>0.06580466265991576</v>
+        <v>0.009090324341835609</v>
       </c>
       <c r="G21">
-        <v>-0.02964437033067541</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.05609911795351448</v>
+      </c>
+      <c r="H21">
+        <v>0.008091142978487991</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02956822986513207</v>
+        <v>-0.02307149966374031</v>
       </c>
       <c r="C24">
-        <v>-0.01557967249647962</v>
+        <v>0.004994641652954004</v>
       </c>
       <c r="D24">
-        <v>0.01064376623445254</v>
+        <v>-0.02911963713793944</v>
       </c>
       <c r="E24">
-        <v>0.02488494187853832</v>
+        <v>-0.001320624433154082</v>
       </c>
       <c r="F24">
-        <v>0.03612486150761102</v>
+        <v>0.01968132945783803</v>
       </c>
       <c r="G24">
-        <v>-0.01870608312541404</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.03009215555810594</v>
+      </c>
+      <c r="H24">
+        <v>0.02548653440219458</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03217511128595776</v>
+        <v>-0.03429801475108139</v>
       </c>
       <c r="C25">
-        <v>-0.01078321619672787</v>
+        <v>0.004201080267420852</v>
       </c>
       <c r="D25">
-        <v>0.008581201853502439</v>
+        <v>-0.02527772579913812</v>
       </c>
       <c r="E25">
-        <v>0.03598366252457195</v>
+        <v>-0.001746967464959952</v>
       </c>
       <c r="F25">
-        <v>0.03296182179339261</v>
+        <v>0.0240371966050806</v>
       </c>
       <c r="G25">
-        <v>-0.007960964180235345</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.03371831567828595</v>
+      </c>
+      <c r="H25">
+        <v>0.02865144840677562</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01866527537975017</v>
+        <v>-0.01950008920099946</v>
       </c>
       <c r="C26">
-        <v>0.002590805392370209</v>
+        <v>-0.01670953665865725</v>
       </c>
       <c r="D26">
-        <v>0.03636180343792182</v>
+        <v>-0.00458826815510993</v>
       </c>
       <c r="E26">
-        <v>0.03971963022122935</v>
+        <v>0.00654409713733289</v>
       </c>
       <c r="F26">
-        <v>0.05772923654773279</v>
+        <v>0.004767283210033677</v>
       </c>
       <c r="G26">
-        <v>-0.03354197774458082</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.0378515219974348</v>
+      </c>
+      <c r="H26">
+        <v>-0.003525856333421598</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.07305670320719879</v>
+        <v>-0.03108227011426415</v>
       </c>
       <c r="C27">
-        <v>-0.05245043211705593</v>
+        <v>0.01380642306822476</v>
       </c>
       <c r="D27">
-        <v>0.0005350550552062133</v>
+        <v>-0.01087537426887314</v>
       </c>
       <c r="E27">
-        <v>0.05417955382064749</v>
+        <v>-0.005111531569341332</v>
       </c>
       <c r="F27">
-        <v>0.05599434927102939</v>
+        <v>0.02622707992018343</v>
       </c>
       <c r="G27">
-        <v>-0.05779960122717841</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.02774606748726833</v>
+      </c>
+      <c r="H27">
+        <v>-0.002641523873364173</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.07651369864947569</v>
+        <v>-0.1422111771923884</v>
       </c>
       <c r="C28">
-        <v>-0.06062063165949081</v>
+        <v>0.04188958835774126</v>
       </c>
       <c r="D28">
-        <v>-0.0385831727087589</v>
+        <v>0.2184107398638895</v>
       </c>
       <c r="E28">
-        <v>-0.179588649652289</v>
+        <v>0.02531475413435658</v>
       </c>
       <c r="F28">
-        <v>0.09364580298535767</v>
+        <v>-0.09460149762186067</v>
       </c>
       <c r="G28">
-        <v>0.02462521425968652</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01008003736521536</v>
+      </c>
+      <c r="H28">
+        <v>-0.01217458328352343</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01905500351738565</v>
+        <v>-0.02054855624507958</v>
       </c>
       <c r="C29">
-        <v>-0.02061540228887303</v>
+        <v>0.0028447984714784</v>
       </c>
       <c r="D29">
-        <v>-0.004162991696067432</v>
+        <v>-0.004840620581770374</v>
       </c>
       <c r="E29">
-        <v>0.05745790674796143</v>
+        <v>-0.01045118501701343</v>
       </c>
       <c r="F29">
-        <v>0.04549870825969272</v>
+        <v>0.02618533926152978</v>
       </c>
       <c r="G29">
-        <v>-0.06164048149039705</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03672770437611082</v>
+      </c>
+      <c r="H29">
+        <v>-0.02016646429981586</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08469533748207166</v>
+        <v>-0.05509781014963459</v>
       </c>
       <c r="C30">
-        <v>-0.05787667037667085</v>
+        <v>-0.0004767471850631879</v>
       </c>
       <c r="D30">
-        <v>0.03836841659722223</v>
+        <v>-0.05737103615593928</v>
       </c>
       <c r="E30">
-        <v>0.08062550939051102</v>
+        <v>0.03450959707385908</v>
       </c>
       <c r="F30">
-        <v>0.05496521066630124</v>
+        <v>0.07239110186290813</v>
       </c>
       <c r="G30">
-        <v>-0.04766421198302295</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.06559700715841073</v>
+      </c>
+      <c r="H30">
+        <v>0.03513143838767258</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06075983893203272</v>
+        <v>-0.05537599439611036</v>
       </c>
       <c r="C31">
-        <v>-0.01800895995424121</v>
+        <v>0.018013372093402</v>
       </c>
       <c r="D31">
-        <v>0.04969201413850828</v>
+        <v>-0.02469232111145674</v>
       </c>
       <c r="E31">
-        <v>0.03358231733019346</v>
+        <v>0.009743089513436116</v>
       </c>
       <c r="F31">
-        <v>0.03753530733098571</v>
+        <v>0.02065312956375897</v>
       </c>
       <c r="G31">
-        <v>-0.07874109958867352</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.02522379067728597</v>
+      </c>
+      <c r="H31">
+        <v>-0.01617460460377105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02090980475998438</v>
+        <v>-0.01388280653493364</v>
       </c>
       <c r="C32">
-        <v>-0.02962969543462472</v>
+        <v>0.01681909838220413</v>
       </c>
       <c r="D32">
-        <v>0.002426672731969075</v>
+        <v>0.007970444315166646</v>
       </c>
       <c r="E32">
-        <v>0.066624315343075</v>
+        <v>-0.01687605077743641</v>
       </c>
       <c r="F32">
-        <v>0.06049657246414876</v>
+        <v>0.04623977178390237</v>
       </c>
       <c r="G32">
-        <v>-0.04980097531219366</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.05645136934489593</v>
+      </c>
+      <c r="H32">
+        <v>0.04112027412566049</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0523989250093197</v>
+        <v>-0.03942680237441796</v>
       </c>
       <c r="C33">
-        <v>-0.003782920877256931</v>
+        <v>0.002776614644015762</v>
       </c>
       <c r="D33">
-        <v>0.0473303415105196</v>
+        <v>-0.03100881591329286</v>
       </c>
       <c r="E33">
-        <v>0.07008924776395434</v>
+        <v>0.02330748505017524</v>
       </c>
       <c r="F33">
-        <v>0.09190227334399678</v>
+        <v>0.01387968507178359</v>
       </c>
       <c r="G33">
-        <v>-0.05220141099547197</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.06409442017185377</v>
+      </c>
+      <c r="H33">
+        <v>0.01497420784376254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03137181305581148</v>
+        <v>-0.02693298172053936</v>
       </c>
       <c r="C34">
-        <v>-0.01665203797262745</v>
+        <v>0.01847060291775264</v>
       </c>
       <c r="D34">
-        <v>0.01330149624572078</v>
+        <v>-0.02971826055927013</v>
       </c>
       <c r="E34">
-        <v>0.04304571949412057</v>
+        <v>-0.006272874158543713</v>
       </c>
       <c r="F34">
-        <v>0.03802867580269831</v>
+        <v>0.02448913147119229</v>
       </c>
       <c r="G34">
-        <v>-0.01752240562606478</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02811234923889813</v>
+      </c>
+      <c r="H34">
+        <v>0.02405643057240605</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01320871959792117</v>
+        <v>-0.02071600242039877</v>
       </c>
       <c r="C36">
-        <v>-0.01012517594030616</v>
+        <v>-0.002544273089926513</v>
       </c>
       <c r="D36">
-        <v>0.002840321011339359</v>
+        <v>0.002408322920230915</v>
       </c>
       <c r="E36">
-        <v>0.02775105009357439</v>
+        <v>-0.001932673376323598</v>
       </c>
       <c r="F36">
-        <v>0.02380114595632397</v>
+        <v>0.008033844296458406</v>
       </c>
       <c r="G36">
-        <v>-0.03652933233639055</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02035536290437003</v>
+      </c>
+      <c r="H36">
+        <v>-0.004200107825298556</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0001264562164465613</v>
+        <v>-0.01853429350084079</v>
       </c>
       <c r="C38">
-        <v>0.005192052557373916</v>
+        <v>0.016677072415559</v>
       </c>
       <c r="D38">
-        <v>-0.0147415964001997</v>
+        <v>0.00212819348027543</v>
       </c>
       <c r="E38">
-        <v>-0.004404846891449136</v>
+        <v>-0.004279690844378452</v>
       </c>
       <c r="F38">
-        <v>0.01539921329320427</v>
+        <v>0.01015859625733916</v>
       </c>
       <c r="G38">
-        <v>0.01634954283581769</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02990268423770477</v>
+      </c>
+      <c r="H38">
+        <v>0.02147383693275571</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03887283136027795</v>
+        <v>-0.02451585018841478</v>
       </c>
       <c r="C39">
-        <v>-0.02106494635561603</v>
+        <v>0.002863745281660199</v>
       </c>
       <c r="D39">
-        <v>0.03252593596306507</v>
+        <v>-0.06818571128642589</v>
       </c>
       <c r="E39">
-        <v>0.04305709803344458</v>
+        <v>0.001485043703674132</v>
       </c>
       <c r="F39">
-        <v>0.04609947452457378</v>
+        <v>0.04088151944408019</v>
       </c>
       <c r="G39">
-        <v>-0.02324730861687196</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.05618253452509658</v>
+      </c>
+      <c r="H39">
+        <v>0.0495699009737</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.02867486823677866</v>
+        <v>-0.03097444220099041</v>
       </c>
       <c r="C40">
-        <v>-0.04417358837437984</v>
+        <v>0.002644697303006455</v>
       </c>
       <c r="D40">
-        <v>0.05635726223067727</v>
+        <v>-0.01404991599327781</v>
       </c>
       <c r="E40">
-        <v>0.03180514114569895</v>
+        <v>0.02083023284397336</v>
       </c>
       <c r="F40">
-        <v>0.08649959921436641</v>
+        <v>0.03386645877511561</v>
       </c>
       <c r="G40">
-        <v>-0.05054664005909296</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.04909451181922425</v>
+      </c>
+      <c r="H40">
+        <v>0.04583616681599976</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.001477212565639177</v>
+        <v>-0.009426831569594377</v>
       </c>
       <c r="C41">
-        <v>0.008326319219643623</v>
+        <v>-0.0003447476641105018</v>
       </c>
       <c r="D41">
-        <v>0.007246106925147745</v>
+        <v>0.008901180289219178</v>
       </c>
       <c r="E41">
-        <v>0.01765509510527176</v>
+        <v>0.002559494767338962</v>
       </c>
       <c r="F41">
-        <v>0.01399127336367469</v>
+        <v>-0.003396080675963995</v>
       </c>
       <c r="G41">
-        <v>-0.05610422425228723</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.008541947333652078</v>
+      </c>
+      <c r="H41">
+        <v>-0.01679590533777512</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3817103636796745</v>
+        <v>-0.1975784009320732</v>
       </c>
       <c r="C42">
-        <v>0.8825166474679736</v>
+        <v>-0.09579196124526233</v>
       </c>
       <c r="D42">
-        <v>0.1844743503489492</v>
+        <v>-0.537723449142358</v>
       </c>
       <c r="E42">
-        <v>-0.1053745525135665</v>
+        <v>0.1171607536753865</v>
       </c>
       <c r="F42">
-        <v>-0.04389699653839453</v>
+        <v>-0.7900352974844187</v>
       </c>
       <c r="G42">
-        <v>-0.01591828471905211</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.0837411455717073</v>
+      </c>
+      <c r="H42">
+        <v>0.02042967207731614</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.007144457767006491</v>
+        <v>-0.009037617470907663</v>
       </c>
       <c r="C43">
-        <v>0.004006169230897327</v>
+        <v>-0.001810964363810636</v>
       </c>
       <c r="D43">
-        <v>0.00982783048182077</v>
+        <v>0.01253129764141754</v>
       </c>
       <c r="E43">
-        <v>0.01959458635599335</v>
+        <v>0.007629844368563073</v>
       </c>
       <c r="F43">
-        <v>0.03457047087669552</v>
+        <v>-0.007979055141747347</v>
       </c>
       <c r="G43">
-        <v>-0.0502859614864764</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.0176049481854063</v>
+      </c>
+      <c r="H43">
+        <v>-0.009161103605858366</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01815269251983822</v>
+        <v>-0.01507884396491896</v>
       </c>
       <c r="C44">
-        <v>0.0007853645767188645</v>
+        <v>0.001108812709398445</v>
       </c>
       <c r="D44">
-        <v>0.02530261121683859</v>
+        <v>-0.02271419570349331</v>
       </c>
       <c r="E44">
-        <v>0.06396204795826334</v>
+        <v>-0.001052685962879738</v>
       </c>
       <c r="F44">
-        <v>0.1740804564614891</v>
+        <v>0.003528849850723497</v>
       </c>
       <c r="G44">
-        <v>-0.160165466352087</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.08899605931747953</v>
+      </c>
+      <c r="H44">
+        <v>0.01316030885198226</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01847185719831929</v>
+        <v>-0.02037395720213445</v>
       </c>
       <c r="C46">
-        <v>-0.02024436755481222</v>
+        <v>-0.001132977331908502</v>
       </c>
       <c r="D46">
-        <v>0.02006063316392267</v>
+        <v>-0.008766735271374304</v>
       </c>
       <c r="E46">
-        <v>0.06237912761577365</v>
+        <v>0.001365539012274245</v>
       </c>
       <c r="F46">
-        <v>0.06794266900675323</v>
+        <v>0.03136882081525133</v>
       </c>
       <c r="G46">
-        <v>-0.05775271476945067</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.05712740058264445</v>
+      </c>
+      <c r="H46">
+        <v>-0.01477270781592328</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09469107900805923</v>
+        <v>-0.07583939168978542</v>
       </c>
       <c r="C47">
-        <v>-0.03611992790842226</v>
+        <v>0.03482963113863086</v>
       </c>
       <c r="D47">
-        <v>0.02552037276666352</v>
+        <v>-0.03221920492919387</v>
       </c>
       <c r="E47">
-        <v>0.03717116431128242</v>
+        <v>0.004954066624453166</v>
       </c>
       <c r="F47">
-        <v>0.003571500081496377</v>
+        <v>0.03171005595874569</v>
       </c>
       <c r="G47">
-        <v>-0.08995259098948366</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.008891300846815815</v>
+      </c>
+      <c r="H47">
+        <v>-0.03065016403204655</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01358688849393488</v>
+        <v>-0.02052433355070068</v>
       </c>
       <c r="C48">
-        <v>-0.004616896990098666</v>
+        <v>0.007317315914821205</v>
       </c>
       <c r="D48">
-        <v>0.01724177966684558</v>
+        <v>-0.004623631770594334</v>
       </c>
       <c r="E48">
-        <v>0.03895440789538271</v>
+        <v>0.002223241086995409</v>
       </c>
       <c r="F48">
-        <v>0.03855195880775584</v>
+        <v>0.01100187648560051</v>
       </c>
       <c r="G48">
-        <v>-0.02018066956634701</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.0276108558793352</v>
+      </c>
+      <c r="H48">
+        <v>-0.001334613640736485</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08848047637234295</v>
+        <v>-0.06935922753757058</v>
       </c>
       <c r="C50">
-        <v>-0.01939576080855149</v>
+        <v>0.0292459362817659</v>
       </c>
       <c r="D50">
-        <v>0.0389707903790898</v>
+        <v>-0.04167863139439022</v>
       </c>
       <c r="E50">
-        <v>0.0559245610414506</v>
+        <v>-0.009155019051154688</v>
       </c>
       <c r="F50">
-        <v>0.02562110309125114</v>
+        <v>0.02746747943651391</v>
       </c>
       <c r="G50">
-        <v>-0.04047981233546074</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.02579151782897817</v>
+      </c>
+      <c r="H50">
+        <v>-0.02693608167749001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02301376434071295</v>
+        <v>-0.0221742989716685</v>
       </c>
       <c r="C51">
-        <v>-0.0143090285785533</v>
+        <v>0.00147604203938547</v>
       </c>
       <c r="D51">
-        <v>0.02323553564747509</v>
+        <v>0.008707718449067611</v>
       </c>
       <c r="E51">
-        <v>0.01484752626032155</v>
+        <v>0.007753758923371287</v>
       </c>
       <c r="F51">
-        <v>0.1455981750309437</v>
+        <v>-0.003030138505834988</v>
       </c>
       <c r="G51">
-        <v>-0.0542323488269611</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.0742571147119645</v>
+      </c>
+      <c r="H51">
+        <v>0.02325614470626934</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1028509141562341</v>
+        <v>-0.09428616574134338</v>
       </c>
       <c r="C53">
-        <v>-0.04945720118204732</v>
+        <v>0.04266136311227881</v>
       </c>
       <c r="D53">
-        <v>0.04324098226443892</v>
+        <v>-0.06210300026628337</v>
       </c>
       <c r="E53">
-        <v>0.04691112174721288</v>
+        <v>0.001318078057918521</v>
       </c>
       <c r="F53">
-        <v>-0.0525876128312388</v>
+        <v>0.06353952893743817</v>
       </c>
       <c r="G53">
-        <v>-0.0343175073005676</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.05684264469995676</v>
+      </c>
+      <c r="H53">
+        <v>-0.03459217350976154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01543003606099741</v>
+        <v>-0.02339569938923044</v>
       </c>
       <c r="C54">
-        <v>-0.03011633400776302</v>
+        <v>0.01353785234638598</v>
       </c>
       <c r="D54">
-        <v>0.001630830970335569</v>
+        <v>0.02054332040691798</v>
       </c>
       <c r="E54">
-        <v>0.03311487505079311</v>
+        <v>-0.003676211505050846</v>
       </c>
       <c r="F54">
-        <v>0.06727765813447661</v>
+        <v>0.0113741260799216</v>
       </c>
       <c r="G54">
-        <v>-0.0734199559880009</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03716810000852778</v>
+      </c>
+      <c r="H54">
+        <v>-0.01574711615830881</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1003036580262551</v>
+        <v>-0.08070113533934932</v>
       </c>
       <c r="C55">
-        <v>-0.03451287009416538</v>
+        <v>0.03744496117712587</v>
       </c>
       <c r="D55">
-        <v>0.00396027431564721</v>
+        <v>-0.06134300075425334</v>
       </c>
       <c r="E55">
-        <v>0.05386838654830497</v>
+        <v>-0.01036464402150533</v>
       </c>
       <c r="F55">
-        <v>-0.0457500823023782</v>
+        <v>0.05317600983387036</v>
       </c>
       <c r="G55">
-        <v>-0.07340644127619758</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.03628639617191402</v>
+      </c>
+      <c r="H55">
+        <v>-0.04656677635036328</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1437788624619627</v>
+        <v>-0.1283144518274791</v>
       </c>
       <c r="C56">
-        <v>-0.08493418350652203</v>
+        <v>0.06438031433172668</v>
       </c>
       <c r="D56">
-        <v>0.02844053736081431</v>
+        <v>-0.08110925901626886</v>
       </c>
       <c r="E56">
-        <v>0.06118918172412201</v>
+        <v>-0.003244972835265512</v>
       </c>
       <c r="F56">
-        <v>-0.1594114155311837</v>
+        <v>0.09144757517412565</v>
       </c>
       <c r="G56">
-        <v>-0.006801067218514587</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.1023767231674359</v>
+      </c>
+      <c r="H56">
+        <v>-0.02804008132654493</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04353440522763247</v>
+        <v>-0.04483238896733686</v>
       </c>
       <c r="C57">
-        <v>-0.01196129473018855</v>
+        <v>-0.005993199190173783</v>
       </c>
       <c r="D57">
-        <v>0.03510974730963876</v>
+        <v>-0.02141804913858134</v>
       </c>
       <c r="E57">
-        <v>0.007677847685102007</v>
+        <v>0.01089763037230203</v>
       </c>
       <c r="F57">
-        <v>0.07535815771559853</v>
+        <v>0.02390408150183443</v>
       </c>
       <c r="G57">
-        <v>-0.04001783549247268</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.06314490303533923</v>
+      </c>
+      <c r="H57">
+        <v>0.008291643399190904</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1898669173756177</v>
+        <v>-0.1422430212050347</v>
       </c>
       <c r="C58">
-        <v>-0.03656149014916688</v>
+        <v>0.04827775864768007</v>
       </c>
       <c r="D58">
-        <v>0.1155489123048637</v>
+        <v>-0.1334781136580364</v>
       </c>
       <c r="E58">
-        <v>0.257071032763665</v>
+        <v>0.1089426940166053</v>
       </c>
       <c r="F58">
-        <v>0.2329363974121216</v>
+        <v>0.04059716770551568</v>
       </c>
       <c r="G58">
-        <v>0.05752253847951873</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.6681325471346381</v>
+      </c>
+      <c r="H58">
+        <v>-0.5605233774973649</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.07207535598293931</v>
+        <v>-0.1446637087518151</v>
       </c>
       <c r="C59">
-        <v>-0.08066802537412439</v>
+        <v>0.04895942261321585</v>
       </c>
       <c r="D59">
-        <v>-0.02575279605945555</v>
+        <v>0.2147569935809744</v>
       </c>
       <c r="E59">
-        <v>-0.1457387486325895</v>
+        <v>0.04292268799248801</v>
       </c>
       <c r="F59">
-        <v>0.09030689498878852</v>
+        <v>-0.07559448523551557</v>
       </c>
       <c r="G59">
-        <v>0.03531855138248411</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.01915085253219763</v>
+      </c>
+      <c r="H59">
+        <v>0.01992318445784432</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1665561522338363</v>
+        <v>-0.170082062306652</v>
       </c>
       <c r="C60">
-        <v>-0.06459061746513076</v>
+        <v>0.04752858420528071</v>
       </c>
       <c r="D60">
-        <v>0.07189501387412624</v>
+        <v>-0.01450269436274842</v>
       </c>
       <c r="E60">
-        <v>0.03464570081664747</v>
+        <v>0.05590247107637178</v>
       </c>
       <c r="F60">
-        <v>0.1314471778843704</v>
+        <v>0.05820861184819907</v>
       </c>
       <c r="G60">
-        <v>0.3250150978811478</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.1399641744632388</v>
+      </c>
+      <c r="H60">
+        <v>0.3729057470884833</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.0205675726080397</v>
+        <v>-0.02333184291723597</v>
       </c>
       <c r="C61">
-        <v>-0.006694069734169845</v>
+        <v>0.007727486406637407</v>
       </c>
       <c r="D61">
-        <v>0.00933923760759321</v>
+        <v>-0.036458817185663</v>
       </c>
       <c r="E61">
-        <v>0.02424651530378716</v>
+        <v>-0.00337036776657596</v>
       </c>
       <c r="F61">
-        <v>0.02328002811022495</v>
+        <v>0.0276201787787396</v>
       </c>
       <c r="G61">
-        <v>-0.02463942753477043</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.03218184518784798</v>
+      </c>
+      <c r="H61">
+        <v>0.03710147625169882</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01616155892257301</v>
+        <v>-0.01358359034778009</v>
       </c>
       <c r="C63">
-        <v>-0.00908324679194532</v>
+        <v>-0.001052558856569702</v>
       </c>
       <c r="D63">
-        <v>0.0142619484471911</v>
+        <v>-0.007416668198645581</v>
       </c>
       <c r="E63">
-        <v>0.04026890572159208</v>
+        <v>-0.002610841593867039</v>
       </c>
       <c r="F63">
-        <v>0.01015476276346334</v>
+        <v>0.01827256246437988</v>
       </c>
       <c r="G63">
-        <v>-0.04361983100571581</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01459358636242423</v>
+      </c>
+      <c r="H63">
+        <v>-0.01235130903378132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03665773113676262</v>
+        <v>-0.04292506860792412</v>
       </c>
       <c r="C64">
-        <v>-0.02350427795914325</v>
+        <v>0.01354721950255696</v>
       </c>
       <c r="D64">
-        <v>-0.01866288168210879</v>
+        <v>-0.03286882880986502</v>
       </c>
       <c r="E64">
-        <v>0.03873239910094176</v>
+        <v>-0.01081597879221457</v>
       </c>
       <c r="F64">
-        <v>0.02318205043236551</v>
+        <v>0.02503905739636565</v>
       </c>
       <c r="G64">
-        <v>-0.06906068550528309</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.02066318908058441</v>
+      </c>
+      <c r="H64">
+        <v>0.02607881691800523</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.01279845100138571</v>
+        <v>-0.03604928636478713</v>
       </c>
       <c r="C65">
-        <v>0.002674639493247498</v>
+        <v>-0.001162517917241074</v>
       </c>
       <c r="D65">
-        <v>0.01313315960596844</v>
+        <v>-0.04342506769679939</v>
       </c>
       <c r="E65">
-        <v>0.01811582677119882</v>
+        <v>-0.006127463546861622</v>
       </c>
       <c r="F65">
-        <v>0.007235672537747945</v>
+        <v>0.03716651294056505</v>
       </c>
       <c r="G65">
-        <v>0.00790631855206411</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.00387391387833437</v>
+      </c>
+      <c r="H65">
+        <v>0.05990527607695181</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.0368812580884093</v>
+        <v>-0.03143794563835849</v>
       </c>
       <c r="C66">
-        <v>-0.02500272263504509</v>
+        <v>0.008299264932320988</v>
       </c>
       <c r="D66">
-        <v>0.02549166589992692</v>
+        <v>-0.0763127651770333</v>
       </c>
       <c r="E66">
-        <v>0.04353407577073406</v>
+        <v>0.006210720158621011</v>
       </c>
       <c r="F66">
-        <v>0.03905980608367054</v>
+        <v>0.05955630498526841</v>
       </c>
       <c r="G66">
-        <v>-0.01174221812360761</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.04816783382209339</v>
+      </c>
+      <c r="H66">
+        <v>0.05892259291427909</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01971579789913707</v>
+        <v>-0.03937543349613243</v>
       </c>
       <c r="C67">
-        <v>-0.000944830414835586</v>
+        <v>0.02137074826014726</v>
       </c>
       <c r="D67">
-        <v>-0.01678260951372076</v>
+        <v>0.007205299235995052</v>
       </c>
       <c r="E67">
-        <v>-0.0239154074887934</v>
+        <v>-0.0009488317266892977</v>
       </c>
       <c r="F67">
-        <v>0.02201053991386362</v>
+        <v>0.01216175699289076</v>
       </c>
       <c r="G67">
-        <v>0.01570089360412488</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.0184629969918513</v>
+      </c>
+      <c r="H67">
+        <v>0.0328985511469715</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08288745739151064</v>
+        <v>-0.1459798371380685</v>
       </c>
       <c r="C68">
-        <v>-0.0602087768901573</v>
+        <v>0.02720744817127747</v>
       </c>
       <c r="D68">
-        <v>-0.0402457834075131</v>
+        <v>0.1996004501075133</v>
       </c>
       <c r="E68">
-        <v>-0.1721856138034661</v>
+        <v>0.0375142937514422</v>
       </c>
       <c r="F68">
-        <v>0.06595939462106071</v>
+        <v>-0.0972309661157741</v>
       </c>
       <c r="G68">
-        <v>0.08013104528987489</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.01561391897868886</v>
+      </c>
+      <c r="H68">
+        <v>-0.04298345905350602</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.070675822954336</v>
+        <v>-0.05976071224257672</v>
       </c>
       <c r="C69">
-        <v>-0.03108921263085034</v>
+        <v>0.0318948788691145</v>
       </c>
       <c r="D69">
-        <v>0.02627628542895305</v>
+        <v>-0.03073365818680325</v>
       </c>
       <c r="E69">
-        <v>0.007653634686131033</v>
+        <v>0.00507316649248331</v>
       </c>
       <c r="F69">
-        <v>0.01113017343808679</v>
+        <v>0.02984383729502208</v>
       </c>
       <c r="G69">
-        <v>-0.08009505880176999</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.001831089744810861</v>
+      </c>
+      <c r="H69">
+        <v>-0.009080707067217426</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1023618528768329</v>
+        <v>-0.1412553306469034</v>
       </c>
       <c r="C71">
-        <v>-0.06314400465768484</v>
+        <v>0.03566731528187093</v>
       </c>
       <c r="D71">
-        <v>-0.02050438679272099</v>
+        <v>0.1865810641924381</v>
       </c>
       <c r="E71">
-        <v>-0.2131153277390768</v>
+        <v>0.03773761404660759</v>
       </c>
       <c r="F71">
-        <v>0.08537359406752877</v>
+        <v>-0.1042171800127819</v>
       </c>
       <c r="G71">
-        <v>0.04999353067211262</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01544614428636209</v>
+      </c>
+      <c r="H71">
+        <v>-0.02582117442741543</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1072347731160038</v>
+        <v>-0.08845592860714066</v>
       </c>
       <c r="C72">
-        <v>-0.09726953025710103</v>
+        <v>0.04787650047996892</v>
       </c>
       <c r="D72">
-        <v>0.02118919759606381</v>
+        <v>-0.06492590351155378</v>
       </c>
       <c r="E72">
-        <v>0.07981943560890353</v>
+        <v>0.007391831842272218</v>
       </c>
       <c r="F72">
-        <v>0.09038501518176521</v>
+        <v>0.1072130659031724</v>
       </c>
       <c r="G72">
-        <v>0.1088786649288552</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.1010491238660051</v>
+      </c>
+      <c r="H72">
+        <v>0.1472910970511658</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2448230879376831</v>
+        <v>-0.2385335836626965</v>
       </c>
       <c r="C73">
-        <v>-0.079688819528863</v>
+        <v>0.06215956153678517</v>
       </c>
       <c r="D73">
-        <v>0.06504797168066594</v>
+        <v>-0.05724949356993667</v>
       </c>
       <c r="E73">
-        <v>0.002028551373478087</v>
+        <v>0.08048108593538297</v>
       </c>
       <c r="F73">
-        <v>0.2052205318230297</v>
+        <v>0.06958799831368935</v>
       </c>
       <c r="G73">
-        <v>0.4603254791188163</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1919904047784264</v>
+      </c>
+      <c r="H73">
+        <v>0.5048054023485454</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.125557090840296</v>
+        <v>-0.1169939712902098</v>
       </c>
       <c r="C74">
-        <v>-0.05057889218893058</v>
+        <v>0.05833331871337341</v>
       </c>
       <c r="D74">
-        <v>0.03725194033469671</v>
+        <v>-0.08084363519873318</v>
       </c>
       <c r="E74">
-        <v>0.02602696250256211</v>
+        <v>0.006221931554286298</v>
       </c>
       <c r="F74">
-        <v>-0.09406474958675827</v>
+        <v>0.07737702781198692</v>
       </c>
       <c r="G74">
-        <v>0.02216149462365317</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.07528366949174685</v>
+      </c>
+      <c r="H74">
+        <v>-0.007347949652373714</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2133318079927757</v>
+        <v>-0.2259544239302618</v>
       </c>
       <c r="C75">
-        <v>-0.1281205373373838</v>
+        <v>0.1147161947841235</v>
       </c>
       <c r="D75">
-        <v>0.06797987561209289</v>
+        <v>-0.1279835901125616</v>
       </c>
       <c r="E75">
-        <v>0.07945199908761358</v>
+        <v>0.02043268857975086</v>
       </c>
       <c r="F75">
-        <v>-0.1668237242791725</v>
+        <v>0.1534218194797738</v>
       </c>
       <c r="G75">
-        <v>-0.05212432942498389</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.161813320309293</v>
+      </c>
+      <c r="H75">
+        <v>-0.0911151371434772</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2679044450114211</v>
+        <v>-0.2069301388585675</v>
       </c>
       <c r="C76">
-        <v>-0.1347515497278319</v>
+        <v>0.1090181803131444</v>
       </c>
       <c r="D76">
-        <v>0.01304238732224611</v>
+        <v>-0.1151572615482299</v>
       </c>
       <c r="E76">
-        <v>0.0547002322990176</v>
+        <v>-0.01981471318162872</v>
       </c>
       <c r="F76">
-        <v>-0.1969370170893337</v>
+        <v>0.1455602043772066</v>
       </c>
       <c r="G76">
-        <v>-0.06090975714056249</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1745342540365752</v>
+      </c>
+      <c r="H76">
+        <v>-0.09242853489681616</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1384458565295099</v>
+        <v>-0.07579715034119233</v>
       </c>
       <c r="C77">
-        <v>0.01554295693354791</v>
+        <v>0.01392125293866116</v>
       </c>
       <c r="D77">
-        <v>0.06610425593581705</v>
+        <v>-0.07241772634782884</v>
       </c>
       <c r="E77">
-        <v>0.1094964460439212</v>
+        <v>0.01199073447931754</v>
       </c>
       <c r="F77">
-        <v>0.2314729792698029</v>
+        <v>0.0025094879523065</v>
       </c>
       <c r="G77">
-        <v>-0.1260353771978553</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.1323188160756236</v>
+      </c>
+      <c r="H77">
+        <v>-0.06755717930435352</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.05225475695738583</v>
+        <v>-0.035391389926698</v>
       </c>
       <c r="C78">
-        <v>-0.0189223056170488</v>
+        <v>0.01167740039929671</v>
       </c>
       <c r="D78">
-        <v>0.03540576792157489</v>
+        <v>-0.0576636566058312</v>
       </c>
       <c r="E78">
-        <v>0.1040280055721591</v>
+        <v>-0.004893003110530179</v>
       </c>
       <c r="F78">
-        <v>0.03681144487593803</v>
+        <v>0.05062410866874887</v>
       </c>
       <c r="G78">
-        <v>-0.06222275139057016</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.05499240112285771</v>
+      </c>
+      <c r="H78">
+        <v>0.02563774844966787</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2178725852670847</v>
+        <v>-0.170648714772368</v>
       </c>
       <c r="C80">
-        <v>0.1377368827151567</v>
+        <v>0.06151759378106456</v>
       </c>
       <c r="D80">
-        <v>-0.9241969824256252</v>
+        <v>0.003421177659338912</v>
       </c>
       <c r="E80">
-        <v>0.2419483498893841</v>
+        <v>-0.9618497771248571</v>
       </c>
       <c r="F80">
-        <v>0.04036970057680386</v>
+        <v>-0.1274511471676215</v>
       </c>
       <c r="G80">
-        <v>0.03280608243637916</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.0956242958917389</v>
+      </c>
+      <c r="H80">
+        <v>0.008174864395022231</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1533238841943306</v>
+        <v>-0.1497147517173371</v>
       </c>
       <c r="C81">
-        <v>-0.09658005015446712</v>
+        <v>0.07515765080082593</v>
       </c>
       <c r="D81">
-        <v>0.02072801709846977</v>
+        <v>-0.07787113884339263</v>
       </c>
       <c r="E81">
-        <v>0.05505117917018924</v>
+        <v>-0.001583681625271418</v>
       </c>
       <c r="F81">
-        <v>-0.1723046590656175</v>
+        <v>0.09925690569413305</v>
       </c>
       <c r="G81">
-        <v>-0.01865302846819206</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1055644155844653</v>
+      </c>
+      <c r="H81">
+        <v>-0.06653010551517381</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05262166817512373</v>
+        <v>-0.03779993799124437</v>
       </c>
       <c r="C83">
-        <v>0.009299125924392039</v>
+        <v>0.009045363029048219</v>
       </c>
       <c r="D83">
-        <v>0.03880521720267989</v>
+        <v>-0.02238053829246807</v>
       </c>
       <c r="E83">
-        <v>0.03285750225882898</v>
+        <v>0.01209000060863426</v>
       </c>
       <c r="F83">
-        <v>0.06178355112512032</v>
+        <v>0.01132645429081944</v>
       </c>
       <c r="G83">
-        <v>-0.05111721590851944</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05790463765831447</v>
+      </c>
+      <c r="H83">
+        <v>0.01315704629963516</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2325307109825525</v>
+        <v>-0.2137279958851156</v>
       </c>
       <c r="C85">
-        <v>-0.118717022508996</v>
+        <v>0.09626522241880547</v>
       </c>
       <c r="D85">
-        <v>0.04361584614300179</v>
+        <v>-0.1326988734817951</v>
       </c>
       <c r="E85">
-        <v>0.05053439627603125</v>
+        <v>0.01305672306732988</v>
       </c>
       <c r="F85">
-        <v>-0.1920248632231855</v>
+        <v>0.1366955551730848</v>
       </c>
       <c r="G85">
-        <v>-0.07539113163366157</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1693921853950483</v>
+      </c>
+      <c r="H85">
+        <v>-0.05917501301897432</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-5.622078679661355e-05</v>
+        <v>-0.01595843524755365</v>
       </c>
       <c r="C86">
-        <v>0.008694789208914916</v>
+        <v>-0.0005558572636081762</v>
       </c>
       <c r="D86">
-        <v>0.00370693763516985</v>
+        <v>-0.00572385535445377</v>
       </c>
       <c r="E86">
-        <v>0.04484174721729896</v>
+        <v>0.009662402451477011</v>
       </c>
       <c r="F86">
-        <v>0.07446295833519728</v>
+        <v>-0.00200304861226663</v>
       </c>
       <c r="G86">
-        <v>-0.02469828393591124</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.08711221277242516</v>
+      </c>
+      <c r="H86">
+        <v>0.03669800921005562</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03126199722367718</v>
+        <v>-0.02851120557219228</v>
       </c>
       <c r="C87">
-        <v>-0.009374015132942878</v>
+        <v>0.004590931334289581</v>
       </c>
       <c r="D87">
-        <v>0.01245820128135719</v>
+        <v>-0.02743864564110784</v>
       </c>
       <c r="E87">
-        <v>0.03130076296014524</v>
+        <v>0.0006626611882309113</v>
       </c>
       <c r="F87">
-        <v>0.08324387135069208</v>
+        <v>0.02522441680566224</v>
       </c>
       <c r="G87">
-        <v>-0.00307937297065146</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.09472925808799104</v>
+      </c>
+      <c r="H87">
+        <v>0.02541922467532241</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.009296969771607336</v>
+        <v>-0.03774258847573907</v>
       </c>
       <c r="C88">
-        <v>-0.01448814575584695</v>
+        <v>-0.008386355606268828</v>
       </c>
       <c r="D88">
-        <v>-0.0240702613121058</v>
+        <v>0.001425386677550744</v>
       </c>
       <c r="E88">
-        <v>-0.008391807301051619</v>
+        <v>-0.007953501204469965</v>
       </c>
       <c r="F88">
-        <v>0.03477127272008867</v>
+        <v>0.01381033575051836</v>
       </c>
       <c r="G88">
-        <v>-0.06779603565710052</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.002800826951559766</v>
+      </c>
+      <c r="H88">
+        <v>0.009891018256610649</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1251468048683707</v>
+        <v>-0.2306937278886661</v>
       </c>
       <c r="C89">
-        <v>-0.08886853575742595</v>
+        <v>0.05495403061187065</v>
       </c>
       <c r="D89">
-        <v>-0.02892075548245577</v>
+        <v>0.3292595257294905</v>
       </c>
       <c r="E89">
-        <v>-0.2921898678647056</v>
+        <v>0.082923555332681</v>
       </c>
       <c r="F89">
-        <v>0.1460941282876786</v>
+        <v>-0.144482044040853</v>
       </c>
       <c r="G89">
-        <v>0.02176947564671494</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.002838943954393011</v>
+      </c>
+      <c r="H89">
+        <v>-0.03173915192004478</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1116697702803793</v>
+        <v>-0.1806114209928472</v>
       </c>
       <c r="C90">
-        <v>-0.0857967051747489</v>
+        <v>0.04330505908815831</v>
       </c>
       <c r="D90">
-        <v>-0.07515645699957235</v>
+        <v>0.2827736202913532</v>
       </c>
       <c r="E90">
-        <v>-0.2844912901436174</v>
+        <v>0.05429761914614552</v>
       </c>
       <c r="F90">
-        <v>0.103120369606824</v>
+        <v>-0.139986797401895</v>
       </c>
       <c r="G90">
-        <v>0.0429569680444646</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.03700517449913748</v>
+      </c>
+      <c r="H90">
+        <v>-0.04666064356023707</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2871815217904333</v>
+        <v>-0.2298263873112777</v>
       </c>
       <c r="C91">
-        <v>-0.1067471674634385</v>
+        <v>0.1145248147603481</v>
       </c>
       <c r="D91">
-        <v>0.05977796706976601</v>
+        <v>-0.1275597876084791</v>
       </c>
       <c r="E91">
-        <v>0.04236333856760052</v>
+        <v>0.01195684175752197</v>
       </c>
       <c r="F91">
-        <v>-0.2584746046776336</v>
+        <v>0.1382921291780185</v>
       </c>
       <c r="G91">
-        <v>-0.02979799669722881</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.2101528132152678</v>
+      </c>
+      <c r="H91">
+        <v>-0.1199636873327198</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1894374980066879</v>
+        <v>-0.2351373047523934</v>
       </c>
       <c r="C92">
-        <v>-0.08911744267109975</v>
+        <v>0.1095657176022833</v>
       </c>
       <c r="D92">
-        <v>-0.1088470108418894</v>
+        <v>0.2318098942402839</v>
       </c>
       <c r="E92">
-        <v>-0.4715211008999647</v>
+        <v>0.03720697987306057</v>
       </c>
       <c r="F92">
-        <v>0.03793963562034412</v>
+        <v>-0.1166742275272582</v>
       </c>
       <c r="G92">
-        <v>-0.5106313569876428</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.04449419145976526</v>
+      </c>
+      <c r="H92">
+        <v>-0.1358791744131205</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1226119542430561</v>
+        <v>-0.2041955197395283</v>
       </c>
       <c r="C93">
-        <v>-0.06607308459161179</v>
+        <v>0.05530782195439298</v>
       </c>
       <c r="D93">
-        <v>-0.08899655219435912</v>
+        <v>0.3010391008233896</v>
       </c>
       <c r="E93">
-        <v>-0.3941437092215244</v>
+        <v>0.06864561086818892</v>
       </c>
       <c r="F93">
-        <v>0.0703254171774805</v>
+        <v>-0.1770058311032216</v>
       </c>
       <c r="G93">
-        <v>0.1092988847949057</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.04731842027312252</v>
+      </c>
+      <c r="H93">
+        <v>0.01298560497729355</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2631361565492096</v>
+        <v>-0.2526156352265871</v>
       </c>
       <c r="C94">
-        <v>-0.1467701124893982</v>
+        <v>0.1056098479588059</v>
       </c>
       <c r="D94">
-        <v>0.02919036346602016</v>
+        <v>-0.1098083197478985</v>
       </c>
       <c r="E94">
-        <v>0.03951480588064031</v>
+        <v>0.03221287966242092</v>
       </c>
       <c r="F94">
-        <v>-0.304062264517564</v>
+        <v>0.161685580400883</v>
       </c>
       <c r="G94">
-        <v>0.03001958654129603</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2147085000784872</v>
+      </c>
+      <c r="H94">
+        <v>-0.1346851849845012</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07682925220881813</v>
+        <v>-0.06679013397224187</v>
       </c>
       <c r="C95">
-        <v>-0.007571538670054316</v>
+        <v>0.03646378598723053</v>
       </c>
       <c r="D95">
-        <v>0.06505487957201721</v>
+        <v>-0.08408575179426152</v>
       </c>
       <c r="E95">
-        <v>0.07256796312915541</v>
+        <v>0.07010625436761002</v>
       </c>
       <c r="F95">
-        <v>0.02502713646556605</v>
+        <v>0.0256752529788615</v>
       </c>
       <c r="G95">
-        <v>-0.2424563148467715</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.0587908120336583</v>
+      </c>
+      <c r="H95">
+        <v>0.0005552012364919455</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1874560896094486</v>
+        <v>-0.1780949580155349</v>
       </c>
       <c r="C98">
-        <v>-0.04776006591440869</v>
+        <v>0.07958110433253876</v>
       </c>
       <c r="D98">
-        <v>0.05458582154656799</v>
+        <v>-0.03758882171406304</v>
       </c>
       <c r="E98">
-        <v>-0.02867874026660482</v>
+        <v>0.05431977489232627</v>
       </c>
       <c r="F98">
-        <v>0.08077417646264839</v>
+        <v>0.03287768653787501</v>
       </c>
       <c r="G98">
-        <v>0.3181249371070614</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1601627992960371</v>
+      </c>
+      <c r="H98">
+        <v>0.3633081561081131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002436563914293678</v>
+        <v>-0.01337125766604112</v>
       </c>
       <c r="C101">
-        <v>-0.02351225449573567</v>
+        <v>0.0002568859377573031</v>
       </c>
       <c r="D101">
-        <v>0.01060497585878908</v>
+        <v>-0.005560102226418434</v>
       </c>
       <c r="E101">
-        <v>0.1259383347892898</v>
+        <v>-0.006053838098955259</v>
       </c>
       <c r="F101">
-        <v>0.1385841753417802</v>
+        <v>0.03248418319419426</v>
       </c>
       <c r="G101">
-        <v>-0.1181533469692408</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.09866396036492184</v>
+      </c>
+      <c r="H101">
+        <v>-0.07433138909360298</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09544443966448141</v>
+        <v>-0.1049379485284075</v>
       </c>
       <c r="C102">
-        <v>-0.03309553877902722</v>
+        <v>0.03950545587922908</v>
       </c>
       <c r="D102">
-        <v>0.01295982960235594</v>
+        <v>-0.06756433011316444</v>
       </c>
       <c r="E102">
-        <v>0.06318671626277063</v>
+        <v>-0.001444152967233627</v>
       </c>
       <c r="F102">
-        <v>-0.1349701117962074</v>
+        <v>0.06893547129811671</v>
       </c>
       <c r="G102">
-        <v>-0.07038835316749396</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.09565454479668051</v>
+      </c>
+      <c r="H102">
+        <v>-0.05357240620333143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02460700155158679</v>
+        <v>-0.02076506557374752</v>
       </c>
       <c r="C103">
-        <v>-0.01364351904853234</v>
+        <v>0.009059888553289226</v>
       </c>
       <c r="D103">
-        <v>0.01097326170994098</v>
+        <v>-0.01368062180817681</v>
       </c>
       <c r="E103">
-        <v>0.002623683734195871</v>
+        <v>-0.006149801653555908</v>
       </c>
       <c r="F103">
-        <v>-0.0122982128807071</v>
+        <v>0.01846097437824936</v>
       </c>
       <c r="G103">
-        <v>-0.02438857738770451</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.006533274872736997</v>
+      </c>
+      <c r="H103">
+        <v>-0.01069347302140434</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.3230951011961504</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9258262717886281</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.04647161379688509</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.0258183880835207</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1563045338520148</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.03943123414332994</v>
+      </c>
+      <c r="H104">
+        <v>-0.03056259238302573</v>
       </c>
     </row>
   </sheetData>
